--- a/screen_number_dict.xlsx
+++ b/screen_number_dict.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="985" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -236,14 +236,14 @@
   <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I23" activeCellId="0" sqref="I23"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.59278350515464"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="78.8917525773196"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.59278350515464"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.45360824742268"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="78.6907216494845"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.45360824742268"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -311,151 +311,241 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>9</v>
+      </c>
       <c r="B9" s="0" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="B10" s="0" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>11</v>
+      </c>
       <c r="B11" s="0" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>12</v>
+      </c>
       <c r="B12" s="0" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>13</v>
+      </c>
       <c r="B13" s="0" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>14</v>
+      </c>
       <c r="B14" s="0" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>15</v>
+      </c>
       <c r="B15" s="0" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>16</v>
+      </c>
       <c r="B16" s="0" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>17</v>
+      </c>
       <c r="B17" s="0" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>18</v>
+      </c>
       <c r="B18" s="0" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>19</v>
+      </c>
       <c r="B19" s="0" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>20</v>
+      </c>
       <c r="B20" s="0" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>21</v>
+      </c>
       <c r="B21" s="0" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>22</v>
+      </c>
       <c r="B22" s="0" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>23</v>
+      </c>
       <c r="B23" s="0" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>24</v>
+      </c>
       <c r="B24" s="0" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>25</v>
+      </c>
       <c r="B25" s="0" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>26</v>
+      </c>
       <c r="B26" s="0" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>27</v>
+      </c>
       <c r="B27" s="0" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>28</v>
+      </c>
       <c r="B28" s="0" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>29</v>
+      </c>
       <c r="B29" s="0" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>30</v>
+      </c>
       <c r="B30" s="0" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>31</v>
+      </c>
       <c r="B31" s="0" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>32</v>
+      </c>
       <c r="B32" s="0" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>33</v>
+      </c>
       <c r="B33" s="0" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>34</v>
+      </c>
       <c r="B34" s="0" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>35</v>
+      </c>
       <c r="B35" s="0" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>36</v>
+      </c>
       <c r="B36" s="0" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <v>37</v>
+      </c>
       <c r="B37" s="0" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
+        <v>38</v>
+      </c>
       <c r="B38" s="0" t="s">
         <v>37</v>
       </c>
@@ -479,12 +569,12 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.59278350515464"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.45360824742268"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -505,12 +595,12 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.59278350515464"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.45360824742268"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
